--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1624.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1624.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.139990728612909</v>
+        <v>0.8732805848121643</v>
       </c>
       <c r="B1">
-        <v>2.803125869204757</v>
+        <v>2.994909286499023</v>
       </c>
       <c r="C1">
-        <v>4.242565909386861</v>
+        <v>4.522442817687988</v>
       </c>
       <c r="D1">
-        <v>2.238218144851329</v>
+        <v>2.908376216888428</v>
       </c>
       <c r="E1">
-        <v>1.077222265498323</v>
+        <v>1.418692469596863</v>
       </c>
     </row>
   </sheetData>
